--- a/horarios_optimizados-780-push_gap_0.80.xlsx
+++ b/horarios_optimizados-780-push_gap_0.80.xlsx
@@ -624,66 +624,18 @@
       <c r="K5" s="4" t="inlineStr"/>
       <c r="L5" s="4" t="inlineStr"/>
       <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr"/>
+      <c r="P5" s="4" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr"/>
+      <c r="W5" s="4" t="inlineStr"/>
+      <c r="X5" s="4" t="inlineStr"/>
+      <c r="Y5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -696,28 +648,24 @@
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -743,11 +691,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -825,11 +769,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q7" s="4" t="inlineStr"/>
       <c r="R7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -840,7 +780,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -877,28 +821,20 @@
       <c r="C8" s="4" t="inlineStr"/>
       <c r="D8" s="4" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr"/>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -976,11 +912,31 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1002,9 +958,21 @@
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="4" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1020,46 +988,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R9" s="4" t="inlineStr"/>
+      <c r="S9" s="4" t="inlineStr"/>
+      <c r="T9" s="4" t="inlineStr"/>
+      <c r="U9" s="4" t="inlineStr"/>
+      <c r="V9" s="4" t="inlineStr"/>
+      <c r="W9" s="4" t="inlineStr"/>
+      <c r="X9" s="4" t="inlineStr"/>
+      <c r="Y9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1073,21 +1009,37 @@
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="4" t="inlineStr"/>
-      <c r="J10" s="4" t="inlineStr"/>
-      <c r="K10" s="4" t="inlineStr"/>
-      <c r="L10" s="4" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N10" s="4" t="inlineStr"/>
       <c r="O10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1160,18 +1112,66 @@
       <c r="I11" s="4" t="inlineStr"/>
       <c r="J11" s="4" t="inlineStr"/>
       <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr"/>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr"/>
-      <c r="W11" s="4" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X11" s="4" t="inlineStr"/>
       <c r="Y11" s="4" t="inlineStr"/>
     </row>
@@ -1267,53 +1267,25 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr"/>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1339,14 +1311,46 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr"/>
-      <c r="W15" s="4" t="inlineStr"/>
-      <c r="X15" s="4" t="inlineStr"/>
-      <c r="Y15" s="4" t="inlineStr"/>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1354,53 +1358,17 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr"/>
       <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
       <c r="M16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1431,13 +1399,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr"/>
-      <c r="T16" s="4" t="inlineStr"/>
-      <c r="U16" s="4" t="inlineStr"/>
-      <c r="V16" s="4" t="inlineStr"/>
-      <c r="W16" s="4" t="inlineStr"/>
-      <c r="X16" s="4" t="inlineStr"/>
-      <c r="Y16" s="4" t="inlineStr"/>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1476,9 +1472,21 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1504,19 +1512,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J18" s="4" t="inlineStr"/>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
       <c r="O18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1552,26 +1556,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
+      <c r="X18" s="4" t="inlineStr"/>
+      <c r="Y18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1586,10 +1574,26 @@
       <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="inlineStr"/>
       <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
-      <c r="L19" s="4" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1620,37 +1624,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="4" t="inlineStr"/>
+      <c r="X19" s="4" t="inlineStr"/>
+      <c r="Y19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1658,25 +1646,33 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr"/>
       <c r="I20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1687,9 +1683,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr"/>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1730,26 +1738,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V20" s="4" t="inlineStr"/>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1762,21 +1754,29 @@
       <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1929,23 +1929,87 @@
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="4" t="inlineStr"/>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
-      <c r="X25" s="4" t="inlineStr"/>
-      <c r="Y25" s="4" t="inlineStr"/>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1964,71 +2028,19 @@
       <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="4" t="inlineStr"/>
       <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
+      <c r="X26" s="4" t="inlineStr"/>
+      <c r="Y26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2066,12 +2078,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I27" s="4" t="inlineStr"/>
+      <c r="H27" s="4" t="inlineStr"/>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2107,26 +2119,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr"/>
       <c r="U27" s="4" t="inlineStr"/>
       <c r="V27" s="4" t="inlineStr"/>
       <c r="W27" s="4" t="inlineStr"/>
@@ -2164,22 +2160,18 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr"/>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
       <c r="K28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2205,31 +2197,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P28" s="4" t="inlineStr"/>
+      <c r="Q28" s="4" t="inlineStr"/>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr"/>
+      <c r="T28" s="4" t="inlineStr"/>
       <c r="U28" s="4" t="inlineStr"/>
       <c r="V28" s="4" t="inlineStr"/>
       <c r="W28" s="4" t="inlineStr"/>
@@ -2245,9 +2217,21 @@
       <c r="B29" s="4" t="inlineStr"/>
       <c r="C29" s="4" t="inlineStr"/>
       <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2258,27 +2242,19 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J29" s="4" t="inlineStr"/>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="4" t="inlineStr"/>
       <c r="M29" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N29" s="4" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2309,11 +2285,31 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr"/>
-      <c r="V29" s="4" t="inlineStr"/>
-      <c r="W29" s="4" t="inlineStr"/>
-      <c r="X29" s="4" t="inlineStr"/>
-      <c r="Y29" s="4" t="inlineStr"/>
+      <c r="U29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2327,11 +2323,7 @@
       <c r="E30" s="4" t="inlineStr"/>
       <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H30" s="4" t="inlineStr"/>
       <c r="I30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2352,7 +2344,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2368,11 +2364,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q30" s="4" t="inlineStr"/>
       <c r="R30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2393,10 +2385,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2406,9 +2414,21 @@
       </c>
       <c r="B31" s="4" t="inlineStr"/>
       <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2419,19 +2439,23 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K31" s="4" t="inlineStr"/>
-      <c r="L31" s="4" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr"/>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2452,36 +2476,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R31" s="4" t="inlineStr"/>
+      <c r="S31" s="4" t="inlineStr"/>
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
+      <c r="V31" s="4" t="inlineStr"/>
+      <c r="W31" s="4" t="inlineStr"/>
       <c r="X31" s="4" t="inlineStr"/>
       <c r="Y31" s="4" t="inlineStr"/>
     </row>
@@ -2577,13 +2577,41 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr"/>
-      <c r="C35" s="4" t="inlineStr"/>
-      <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr"/>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I35" s="4" t="inlineStr"/>
       <c r="J35" s="5" t="inlineStr">
         <is>
@@ -2610,57 +2638,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O35" s="4" t="inlineStr"/>
+      <c r="P35" s="4" t="inlineStr"/>
+      <c r="Q35" s="4" t="inlineStr"/>
+      <c r="R35" s="4" t="inlineStr"/>
+      <c r="S35" s="4" t="inlineStr"/>
       <c r="T35" s="4" t="inlineStr"/>
-      <c r="U35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U35" s="4" t="inlineStr"/>
+      <c r="V35" s="4" t="inlineStr"/>
+      <c r="W35" s="4" t="inlineStr"/>
+      <c r="X35" s="4" t="inlineStr"/>
+      <c r="Y35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -2668,20 +2656,72 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr"/>
-      <c r="C36" s="4" t="inlineStr"/>
-      <c r="D36" s="4" t="inlineStr"/>
-      <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="4" t="inlineStr"/>
-      <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="4" t="inlineStr"/>
-      <c r="J36" s="4" t="inlineStr"/>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K36" s="4" t="inlineStr"/>
-      <c r="L36" s="4" t="inlineStr"/>
-      <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr"/>
-      <c r="O36" s="4" t="inlineStr"/>
+      <c r="L36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P36" s="4" t="inlineStr"/>
       <c r="Q36" s="4" t="inlineStr"/>
       <c r="R36" s="4" t="inlineStr"/>
@@ -2703,7 +2743,11 @@
       <c r="C37" s="4" t="inlineStr"/>
       <c r="D37" s="4" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr"/>
-      <c r="F37" s="4" t="inlineStr"/>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2719,11 +2763,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J37" s="4" t="inlineStr"/>
       <c r="K37" s="4" t="inlineStr"/>
       <c r="L37" s="4" t="inlineStr"/>
       <c r="M37" s="4" t="inlineStr"/>
@@ -2797,26 +2837,10 @@
       <c r="B38" s="4" t="inlineStr"/>
       <c r="C38" s="4" t="inlineStr"/>
       <c r="D38" s="4" t="inlineStr"/>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
       <c r="I38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2827,10 +2851,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K38" s="4" t="inlineStr"/>
-      <c r="L38" s="4" t="inlineStr"/>
-      <c r="M38" s="4" t="inlineStr"/>
-      <c r="N38" s="4" t="inlineStr"/>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2866,10 +2906,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V38" s="4" t="inlineStr"/>
-      <c r="W38" s="4" t="inlineStr"/>
-      <c r="X38" s="4" t="inlineStr"/>
-      <c r="Y38" s="4" t="inlineStr"/>
+      <c r="V38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2877,46 +2933,14 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
       <c r="J39" s="4" t="inlineStr"/>
       <c r="K39" s="4" t="inlineStr"/>
       <c r="L39" s="5" t="inlineStr">
@@ -2959,12 +2983,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr"/>
-      <c r="W39" s="4" t="inlineStr"/>
-      <c r="X39" s="4" t="inlineStr"/>
-      <c r="Y39" s="4" t="inlineStr"/>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -2972,21 +3020,9 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B40" s="4" t="inlineStr"/>
+      <c r="C40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="inlineStr"/>
       <c r="E40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2997,15 +3033,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr"/>
-      <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr"/>
       <c r="L40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3069,68 +3117,20 @@
       </c>
       <c r="B41" s="4" t="inlineStr"/>
       <c r="C41" s="4" t="inlineStr"/>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr"/>
+      <c r="H41" s="4" t="inlineStr"/>
       <c r="I41" s="4" t="inlineStr"/>
       <c r="J41" s="4" t="inlineStr"/>
-      <c r="K41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K41" s="4" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr"/>
+      <c r="M41" s="4" t="inlineStr"/>
+      <c r="N41" s="4" t="inlineStr"/>
+      <c r="O41" s="4" t="inlineStr"/>
+      <c r="P41" s="4" t="inlineStr"/>
+      <c r="Q41" s="4" t="inlineStr"/>
       <c r="R41" s="4" t="inlineStr"/>
       <c r="S41" s="4" t="inlineStr"/>
       <c r="T41" s="4" t="inlineStr"/>
@@ -3242,20 +3242,18 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>Descanso</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3275,17 +3273,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3294,10 +3292,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -3323,12 +3321,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3361,30 +3359,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3404,7 +3392,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3414,19 +3402,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>7.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -3447,20 +3435,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>8.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3480,18 +3478,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Descanso</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3511,30 +3511,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3554,30 +3544,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3628,29 +3608,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3671,30 +3651,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3714,29 +3684,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3757,20 +3727,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3790,17 +3770,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -3821,20 +3813,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>Descanso</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3859,21 +3849,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>0.5</v>
@@ -3902,24 +3892,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3940,29 +3930,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21">
@@ -3983,26 +3973,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
         <v>0.5</v>
@@ -4026,29 +4016,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -4069,26 +4059,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
         <v>0.5</v>
@@ -4112,17 +4102,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -4143,12 +4145,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4165,7 +4167,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -4186,30 +4188,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4229,30 +4221,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>14:00</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4272,17 +4254,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4294,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -4315,29 +4297,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
